--- a/ValueSet-identifier-type.xlsx
+++ b/ValueSet-identifier-type.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://sm-ig.gihub.io/ValueSet/identifier-type</t>
+    <t>https://whcater.github.io/serious-med-ig/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -43,9 +43,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>IdentifierType - 识别码类型值集</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>whcater (https://www.serious-med.com)</t>
+    <t>whcater (https://whcater.github.io/serious-med-ig/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -82,6 +79,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>识别码类型值集</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>Unified Business number</t>
   </si>
   <si>
-    <t>https://sm-ig.gihub.io/CodeSystem/v2-0203</t>
+    <t>https://whcater.github.io/serious-med-ig/CodeSystem/v2-0203</t>
   </si>
 </sst>
 </file>
@@ -302,61 +302,61 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -408,10 +408,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -465,10 +465,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">

--- a/ValueSet-identifier-type.xlsx
+++ b/ValueSet-identifier-type.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>ValueSet-IdentifierType</t>
   </si>
   <si>
     <t>Status</t>
@@ -302,81 +305,81 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -398,28 +401,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -441,42 +444,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
